--- a/semestr 5/Distributed systems [Kondrat'eva, C, C++]/lab2/13a_LAB2_PetrovAA.xlsx
+++ b/semestr 5/Distributed systems [Kondrat'eva, C, C++]/lab2/13a_LAB2_PetrovAA.xlsx
@@ -5,19 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS\UNIVER\semestr 5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS\UNIVER\semestr 5\Distributed systems [Kondrat'eva, C, C++]\lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E717992A-AA1C-4915-B5C0-930B898D8FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F7C610-E13E-4F95-9206-503D98E8E523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6FDB843B-D76B-4BEC-9B74-13B8ADE6E24F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{6FDB843B-D76B-4BEC-9B74-13B8ADE6E24F}"/>
   </bookViews>
   <sheets>
     <sheet name="Task_2" sheetId="1" r:id="rId1"/>
-    <sheet name="Task_3-1" sheetId="2" r:id="rId2"/>
-    <sheet name="Task_3-2" sheetId="3" r:id="rId3"/>
+    <sheet name="Лист1" sheetId="3" r:id="rId2"/>
+    <sheet name="Task_3" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="26">
   <si>
     <t>Размерность задачи</t>
   </si>
@@ -62,9 +65,6 @@
     <t>Параллельная программа на 2 процессорах</t>
   </si>
   <si>
-    <t>Параллельная программа на 3 процессорах</t>
-  </si>
-  <si>
     <t>Параллельная программа на 4 процессорах</t>
   </si>
   <si>
@@ -83,7 +83,40 @@
     <t>Количество потоков</t>
   </si>
   <si>
-    <t>0.0214337</t>
+    <t>Параллельная программа на 8 процессорах</t>
+  </si>
+  <si>
+    <t>Размерность матрицы и вектора</t>
+  </si>
+  <si>
+    <t>С компиляторной оптимизацией</t>
+  </si>
+  <si>
+    <t>Без компиляторной оптимизации</t>
+  </si>
+  <si>
+    <t>Размер матрицы</t>
+  </si>
+  <si>
+    <t>Последовательный алгоритм</t>
+  </si>
+  <si>
+    <t>Параллельный алгоритм "Непрерывные наборы строк"</t>
+  </si>
+  <si>
+    <t>2 потока</t>
+  </si>
+  <si>
+    <t>4 потока</t>
+  </si>
+  <si>
+    <t>8 потоков</t>
+  </si>
+  <si>
+    <t>Время</t>
+  </si>
+  <si>
+    <t>Параллельный алгоритм "Циклические наборы строк"</t>
   </si>
 </sst>
 </file>
@@ -123,7 +156,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -392,11 +425,178 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -407,15 +607,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -425,51 +616,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -479,40 +631,181 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -532,53 +825,3195 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]Задание 3'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>С компиляторной оптимизацией</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Task_3!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.7300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8609999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.1202000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.539199999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.788600000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]Задание 3'!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.3324</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5042</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.1466000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.1571</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.592000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5FF5-4BAC-8594-34A4F6BEC16D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]Задание 3'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Без компиляторной оптимизации</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Task_3!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.7300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8609999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.1202000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.539199999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.788600000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]Задание 3'!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.5306000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.6622</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.020200000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49.562899999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68.152299999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5FF5-4BAC-8594-34A4F6BEC16D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="75175424"/>
+        <c:axId val="75176960"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="75175424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-BY"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="75176960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="75176960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-BY"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="75175424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-BY"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-BY"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]Задание 3'!$C$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2 потока</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]Задание 3'!$D$13:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.0109339520189558</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6169991281831075</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0544319826338642</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9125041665983618</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1166715459195098</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B07E-44CC-A635-06C1B53C1C20}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]Задание 3'!$E$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4 потока</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]Задание 3'!$F$13:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.2436250481907805</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9768381534154178</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7494552849464964</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.076265505519995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8158762886597937</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B07E-44CC-A635-06C1B53C1C20}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]Задание 3'!$G$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8 потоков</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]Задание 3'!$H$13:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.8444002234324821</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3508446680917876</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7728837561344823</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7189279471742087</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2460419115025547</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B07E-44CC-A635-06C1B53C1C20}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="96964992"/>
+        <c:axId val="96968064"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="96964992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-BY"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="96968064"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="96968064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-BY"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="96964992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-BY"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-BY"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]Задание 3'!$C$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2 потока</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]Задание 3'!$D$30:$D$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.776245164772557</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2018106974096963</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1190248192300176</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7631490626648127</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9235233576611166</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7C3B-4859-9585-318E18D2E9DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]Задание 3'!$E$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4 потока</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]Задание 3'!$F$30:$F$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.1023566155593412</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8613767717077194</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8578714319601488</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5678822687359251</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3119818908833327</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7C3B-4859-9585-318E18D2E9DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]Задание 3'!$G$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8 потоков</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]Задание 3'!$H$30:$H$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.9995949230353767</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4238878608168557</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1691851288946045</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5965671532311303</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0353662645730846</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7C3B-4859-9585-318E18D2E9DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="80393344"/>
+        <c:axId val="80394880"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="80393344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-BY"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="80394880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="80394880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-BY"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="80393344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-BY"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-BY"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>6774</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>724768</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>76532</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>550334</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>211667</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Рисунок 3">
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Диаграмма 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9922FE64-9EC8-4AF1-A025-2A36549C6052}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DDAD029-128F-4F47-8CEA-4A70DF7485D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="5295900"/>
-          <a:ext cx="10013548" cy="3825572"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>330201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>186265</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>110068</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Диаграмма 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AEA8EF4-65CA-497F-8DEB-73B7E47E6038}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>220134</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>186266</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>169334</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Диаграмма 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53D33898-92BD-4BCE-8D7A-D5C0C2A96B06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Задание 2"/>
+      <sheetName val="Задание 3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>С компиляторной оптимизацией</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>Без компиляторной оптимизации</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="B2">
+            <v>1.3324</v>
+          </cell>
+          <cell r="C2">
+            <v>3.5306000000000002</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>3.5042</v>
+          </cell>
+          <cell r="C3">
+            <v>14.6622</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>7.1466000000000003</v>
+          </cell>
+          <cell r="C4">
+            <v>32.020200000000003</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>11.1571</v>
+          </cell>
+          <cell r="C5">
+            <v>49.562899999999999</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>13.592000000000001</v>
+          </cell>
+          <cell r="C6">
+            <v>68.152299999999997</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11" t="str">
+            <v>2 потока</v>
+          </cell>
+          <cell r="E11" t="str">
+            <v>4 потока</v>
+          </cell>
+          <cell r="G11" t="str">
+            <v>8 потоков</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="D13">
+            <v>2.0109339520189558</v>
+          </cell>
+          <cell r="F13">
+            <v>2.2436250481907805</v>
+          </cell>
+          <cell r="H13">
+            <v>2.8444002234324821</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="D14">
+            <v>1.6169991281831075</v>
+          </cell>
+          <cell r="F14">
+            <v>1.9768381534154178</v>
+          </cell>
+          <cell r="H14">
+            <v>2.3508446680917876</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="D15">
+            <v>2.0544319826338642</v>
+          </cell>
+          <cell r="F15">
+            <v>2.7494552849464964</v>
+          </cell>
+          <cell r="H15">
+            <v>2.7728837561344823</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="D16">
+            <v>1.9125041665983618</v>
+          </cell>
+          <cell r="F16">
+            <v>2.076265505519995</v>
+          </cell>
+          <cell r="H16">
+            <v>2.7189279471742087</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="D17">
+            <v>2.1166715459195098</v>
+          </cell>
+          <cell r="F17">
+            <v>2.8158762886597937</v>
+          </cell>
+          <cell r="H17">
+            <v>3.2460419115025547</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="C28" t="str">
+            <v>2 потока</v>
+          </cell>
+          <cell r="E28" t="str">
+            <v>4 потока</v>
+          </cell>
+          <cell r="G28" t="str">
+            <v>8 потоков</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="D30">
+            <v>1.776245164772557</v>
+          </cell>
+          <cell r="F30">
+            <v>2.1023566155593412</v>
+          </cell>
+          <cell r="H30">
+            <v>1.9995949230353767</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="D31">
+            <v>2.2018106974096963</v>
+          </cell>
+          <cell r="F31">
+            <v>2.8613767717077194</v>
+          </cell>
+          <cell r="H31">
+            <v>2.4238878608168557</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="D32">
+            <v>2.1190248192300176</v>
+          </cell>
+          <cell r="F32">
+            <v>2.8578714319601488</v>
+          </cell>
+          <cell r="H32">
+            <v>3.1691851288946045</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="D33">
+            <v>1.7631490626648127</v>
+          </cell>
+          <cell r="F33">
+            <v>2.5678822687359251</v>
+          </cell>
+          <cell r="H33">
+            <v>3.5965671532311303</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="D34">
+            <v>1.9235233576611166</v>
+          </cell>
+          <cell r="F34">
+            <v>2.3119818908833327</v>
+          </cell>
+          <cell r="H34">
+            <v>3.0353662645730846</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -880,8 +4315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0A6ED9-30ED-4A1D-9B92-5DA2C9C4C6D1}">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView zoomScale="76" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -892,472 +4327,668 @@
     <col min="4" max="4" width="16.77734375" style="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.5546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="14.77734375" style="1" customWidth="1"/>
     <col min="9" max="9" width="20.77734375" style="1" customWidth="1"/>
     <col min="10" max="10" width="16.44140625" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="20.33203125" style="1" customWidth="1"/>
     <col min="13" max="13" width="16.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14.109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="26.109375" style="13" customWidth="1"/>
     <col min="15" max="15" width="21.109375" style="1" customWidth="1"/>
     <col min="16" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="61.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="4" t="s">
+      <c r="E1" s="51"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="4" t="s">
+      <c r="H1" s="51"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="4" t="s">
+      <c r="K1" s="51"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="51"/>
+      <c r="O1" s="52"/>
+    </row>
+    <row r="2" spans="1:15" ht="36" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="5"/>
-      <c r="O1" s="6"/>
-    </row>
-    <row r="2" spans="1:15" ht="35.4" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="12"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="36">
+      <c r="B3" s="21">
         <v>1000000</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="10" t="e">
+      <c r="C3" s="22">
+        <v>2.2355</v>
+      </c>
+      <c r="D3" s="23">
+        <v>6.7813999999999997</v>
+      </c>
+      <c r="E3" s="24">
         <f>C3/D3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F3" s="11" t="e">
+        <v>0.3296516943404017</v>
+      </c>
+      <c r="F3" s="25">
         <f>E3/1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G3" s="22"/>
-      <c r="H3" s="10" t="e">
-        <f>G3/C3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I3" s="11">
-        <f>G3/2</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="22"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="11"/>
+        <v>0.3296516943404017</v>
+      </c>
+      <c r="G3" s="23">
+        <v>6.6551</v>
+      </c>
+      <c r="H3" s="24">
+        <f>C3/G3</f>
+        <v>0.33590780003305737</v>
+      </c>
+      <c r="I3" s="25">
+        <f>H3/2</f>
+        <v>0.16795390001652868</v>
+      </c>
+      <c r="J3" s="23">
+        <v>9.3135999999999992</v>
+      </c>
+      <c r="K3" s="24">
+        <f>C3/J3</f>
+        <v>0.24002533928878203</v>
+      </c>
+      <c r="L3" s="25">
+        <f>K3/4</f>
+        <v>6.0006334822195508E-2</v>
+      </c>
+      <c r="M3" s="23">
+        <v>14.826499999999999</v>
+      </c>
+      <c r="N3" s="24">
+        <f>C3/M3</f>
+        <v>0.15077732438539104</v>
+      </c>
+      <c r="O3" s="25">
+        <f>N3/8</f>
+        <v>1.884716554817388E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A4" s="39"/>
-      <c r="B4" s="37">
+      <c r="A4" s="61"/>
+      <c r="B4" s="26">
         <v>10000000</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="10" t="e">
+      <c r="C4" s="27">
+        <v>10.7121</v>
+      </c>
+      <c r="D4" s="28">
+        <v>20.789300000000001</v>
+      </c>
+      <c r="E4" s="21">
         <f t="shared" ref="E4:E11" si="0">C4/D4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F4" s="11" t="e">
+        <v>0.51526987440654559</v>
+      </c>
+      <c r="F4" s="29">
         <f t="shared" ref="F4:F11" si="1">E4/1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G4" s="23"/>
-      <c r="H4" s="10" t="e">
-        <f t="shared" ref="H4:H10" si="2">G4/C4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I4" s="11">
-        <f t="shared" ref="I4:I11" si="3">G4/2</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="23"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="7"/>
+        <v>0.51526987440654559</v>
+      </c>
+      <c r="G4" s="28">
+        <v>20.707699999999999</v>
+      </c>
+      <c r="H4" s="21">
+        <f t="shared" ref="H4:H11" si="2">C4/G4</f>
+        <v>0.51730032789735214</v>
+      </c>
+      <c r="I4" s="29">
+        <f t="shared" ref="I4:I11" si="3">H4/2</f>
+        <v>0.25865016394867607</v>
+      </c>
+      <c r="J4" s="28">
+        <v>27.899899999999999</v>
+      </c>
+      <c r="K4" s="21">
+        <f t="shared" ref="K4:K11" si="4">C4/J4</f>
+        <v>0.38394761271545774</v>
+      </c>
+      <c r="L4" s="29">
+        <f t="shared" ref="L4:L11" si="5">K4/4</f>
+        <v>9.5986903178864436E-2</v>
+      </c>
+      <c r="M4" s="28">
+        <v>20.6326</v>
+      </c>
+      <c r="N4" s="21">
+        <f t="shared" ref="N4:N11" si="6">C4/M4</f>
+        <v>0.51918323429911883</v>
+      </c>
+      <c r="O4" s="29">
+        <f t="shared" ref="O4:O11" si="7">N4/8</f>
+        <v>6.4897904287389854E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="31"/>
-      <c r="B5" s="38">
+      <c r="A5" s="62"/>
+      <c r="B5" s="30">
+        <v>100000000</v>
+      </c>
+      <c r="C5" s="31">
+        <v>181.15790000000001</v>
+      </c>
+      <c r="D5" s="32">
+        <v>130.5069</v>
+      </c>
+      <c r="E5" s="33">
+        <f t="shared" si="0"/>
+        <v>1.3881097474539661</v>
+      </c>
+      <c r="F5" s="34">
+        <f t="shared" si="1"/>
+        <v>1.3881097474539661</v>
+      </c>
+      <c r="G5" s="32">
+        <v>87.802300000000002</v>
+      </c>
+      <c r="H5" s="33">
+        <f>C5/G5</f>
+        <v>2.0632477736915775</v>
+      </c>
+      <c r="I5" s="34">
+        <f t="shared" si="3"/>
+        <v>1.0316238868457888</v>
+      </c>
+      <c r="J5" s="32">
+        <v>69.2346</v>
+      </c>
+      <c r="K5" s="33">
+        <f t="shared" si="4"/>
+        <v>2.6165804381046471</v>
+      </c>
+      <c r="L5" s="34">
+        <f t="shared" si="5"/>
+        <v>0.65414510952616178</v>
+      </c>
+      <c r="M5" s="32">
+        <v>60.922800000000002</v>
+      </c>
+      <c r="N5" s="33">
+        <f>C5 / M5</f>
+        <v>2.9735649050930029</v>
+      </c>
+      <c r="O5" s="34">
+        <f t="shared" si="7"/>
+        <v>0.37169561313662536</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="21">
+        <v>1000000</v>
+      </c>
+      <c r="C6" s="22">
+        <v>19.714400000000001</v>
+      </c>
+      <c r="D6" s="23">
+        <v>16.4175</v>
+      </c>
+      <c r="E6" s="24">
+        <f t="shared" si="0"/>
+        <v>1.2008162022232374</v>
+      </c>
+      <c r="F6" s="25">
+        <f t="shared" si="1"/>
+        <v>1.2008162022232374</v>
+      </c>
+      <c r="G6" s="35">
+        <v>13.5886</v>
+      </c>
+      <c r="H6" s="21">
+        <f t="shared" si="2"/>
+        <v>1.4508043507057389</v>
+      </c>
+      <c r="I6" s="29">
+        <f t="shared" si="3"/>
+        <v>0.72540217535286944</v>
+      </c>
+      <c r="J6" s="35">
+        <v>13.9732</v>
+      </c>
+      <c r="K6" s="21">
+        <f t="shared" si="4"/>
+        <v>1.4108722411473393</v>
+      </c>
+      <c r="L6" s="29">
+        <f t="shared" si="5"/>
+        <v>0.35271806028683483</v>
+      </c>
+      <c r="M6" s="35">
+        <v>17.0565</v>
+      </c>
+      <c r="N6" s="21">
+        <f t="shared" si="6"/>
+        <v>1.1558291560402194</v>
+      </c>
+      <c r="O6" s="29">
+        <f t="shared" si="7"/>
+        <v>0.14447864450502743</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7" s="61"/>
+      <c r="B7" s="26">
         <v>10000000</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="10" t="e">
+      <c r="C7" s="27">
+        <v>143.5342</v>
+      </c>
+      <c r="D7" s="28">
+        <v>105.5382</v>
+      </c>
+      <c r="E7" s="21">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F5" s="11" t="e">
+        <v>1.3600213003443302</v>
+      </c>
+      <c r="F7" s="29">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="10" t="e">
+        <v>1.3600213003443302</v>
+      </c>
+      <c r="G7" s="28">
+        <v>70.267700000000005</v>
+      </c>
+      <c r="H7" s="21">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I5" s="11">
+        <v>2.04267679175496</v>
+      </c>
+      <c r="I7" s="29">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="24"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="9"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A6" s="30" t="s">
+        <v>1.02133839587748</v>
+      </c>
+      <c r="J7" s="28">
+        <v>47.678100000000001</v>
+      </c>
+      <c r="K7" s="21">
+        <f t="shared" si="4"/>
+        <v>3.0104848976783889</v>
+      </c>
+      <c r="L7" s="29">
+        <f t="shared" si="5"/>
+        <v>0.75262122441959722</v>
+      </c>
+      <c r="M7" s="28">
+        <v>44.3626</v>
+      </c>
+      <c r="N7" s="21">
+        <f t="shared" si="6"/>
+        <v>3.2354776320594372</v>
+      </c>
+      <c r="O7" s="29">
+        <f t="shared" si="7"/>
+        <v>0.40443470400742965</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="62"/>
+      <c r="B8" s="30">
+        <v>100000000</v>
+      </c>
+      <c r="C8" s="31">
+        <v>1586.1777</v>
+      </c>
+      <c r="D8" s="32">
+        <v>1027.6197999999999</v>
+      </c>
+      <c r="E8" s="33">
+        <f t="shared" si="0"/>
+        <v>1.5435452878584084</v>
+      </c>
+      <c r="F8" s="34">
+        <f t="shared" si="1"/>
+        <v>1.5435452878584084</v>
+      </c>
+      <c r="G8" s="36">
+        <v>627.49570000000006</v>
+      </c>
+      <c r="H8" s="37">
+        <f t="shared" si="2"/>
+        <v>2.5277905490029648</v>
+      </c>
+      <c r="I8" s="38">
+        <f t="shared" si="3"/>
+        <v>1.2638952745014824</v>
+      </c>
+      <c r="J8" s="36">
+        <v>372.19670000000002</v>
+      </c>
+      <c r="K8" s="37">
+        <f t="shared" si="4"/>
+        <v>4.2616651356661679</v>
+      </c>
+      <c r="L8" s="38">
+        <f t="shared" si="5"/>
+        <v>1.065416283916542</v>
+      </c>
+      <c r="M8" s="36">
+        <v>251.4547</v>
+      </c>
+      <c r="N8" s="37">
+        <f t="shared" si="6"/>
+        <v>6.3080057759906651</v>
+      </c>
+      <c r="O8" s="38">
+        <f t="shared" si="7"/>
+        <v>0.78850072199883314</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="36">
+      <c r="B9" s="21">
         <v>1000000</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="10" t="e">
+      <c r="C9" s="22">
+        <v>16.2712</v>
+      </c>
+      <c r="D9" s="23">
+        <v>17.444199999999999</v>
+      </c>
+      <c r="E9" s="24">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F6" s="11" t="e">
+        <v>0.93275701952511447</v>
+      </c>
+      <c r="F9" s="25">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="10" t="e">
+        <v>0.93275701952511447</v>
+      </c>
+      <c r="G9" s="23">
+        <v>12.576599999999999</v>
+      </c>
+      <c r="H9" s="24">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I6" s="11">
+        <v>1.2937677909768937</v>
+      </c>
+      <c r="I9" s="25">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="22"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="11"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A7" s="39"/>
-      <c r="B7" s="37">
+        <v>0.64688389548844683</v>
+      </c>
+      <c r="J9" s="23">
+        <v>22.541</v>
+      </c>
+      <c r="K9" s="24">
+        <f t="shared" si="4"/>
+        <v>0.72184907501885454</v>
+      </c>
+      <c r="L9" s="25">
+        <f t="shared" si="5"/>
+        <v>0.18046226875471363</v>
+      </c>
+      <c r="M9" s="23">
+        <v>18.770399999999999</v>
+      </c>
+      <c r="N9" s="24">
+        <f t="shared" si="6"/>
+        <v>0.86685419596812008</v>
+      </c>
+      <c r="O9" s="25">
+        <f t="shared" si="7"/>
+        <v>0.10835677449601501</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" s="61"/>
+      <c r="B10" s="26">
         <v>10000000</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="10" t="e">
+      <c r="C10" s="27">
+        <v>146.4657</v>
+      </c>
+      <c r="D10" s="28">
+        <v>112.51600000000001</v>
+      </c>
+      <c r="E10" s="21">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F7" s="11" t="e">
+        <v>1.3017321980873831</v>
+      </c>
+      <c r="F10" s="29">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="10" t="e">
+        <v>1.3017321980873831</v>
+      </c>
+      <c r="G10" s="28">
+        <v>58.334299999999999</v>
+      </c>
+      <c r="H10" s="21">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I7" s="11">
+        <v>2.510798963902884</v>
+      </c>
+      <c r="I10" s="29">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="23"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="7"/>
-    </row>
-    <row r="8" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="31"/>
-      <c r="B8" s="38">
-        <v>10000000</v>
-      </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="10" t="e">
+        <v>1.255399481951442</v>
+      </c>
+      <c r="J10" s="28">
+        <v>54.399900000000002</v>
+      </c>
+      <c r="K10" s="21">
+        <f t="shared" si="4"/>
+        <v>2.6923891404212137</v>
+      </c>
+      <c r="L10" s="29">
+        <f t="shared" si="5"/>
+        <v>0.67309728510530342</v>
+      </c>
+      <c r="M10" s="28">
+        <v>40.280900000000003</v>
+      </c>
+      <c r="N10" s="21">
+        <f t="shared" si="6"/>
+        <v>3.6361079320471981</v>
+      </c>
+      <c r="O10" s="29">
+        <f t="shared" si="7"/>
+        <v>0.45451349150589976</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="62"/>
+      <c r="B11" s="30">
+        <v>100000000</v>
+      </c>
+      <c r="C11" s="31">
+        <v>1149.9253000000001</v>
+      </c>
+      <c r="D11" s="32">
+        <v>1171.0446999999999</v>
+      </c>
+      <c r="E11" s="33">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F8" s="11" t="e">
+        <v>0.98196533403037489</v>
+      </c>
+      <c r="F11" s="34">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="10" t="e">
+        <v>0.98196533403037489</v>
+      </c>
+      <c r="G11" s="32">
+        <v>647.39089999999999</v>
+      </c>
+      <c r="H11" s="33">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I8" s="11">
+        <v>1.776245696379112</v>
+      </c>
+      <c r="I11" s="34">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="24"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="9"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A9" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="36">
-        <v>1000000</v>
-      </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F9" s="11" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="10" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I9" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="22"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="11"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A10" s="39"/>
-      <c r="B10" s="37">
-        <v>10000000</v>
-      </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F10" s="11" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G10" s="23"/>
-      <c r="H10" s="10" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I10" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="23"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="7"/>
-    </row>
-    <row r="11" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="31"/>
-      <c r="B11" s="38">
-        <v>10000000</v>
-      </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F11" s="11" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G11" s="24"/>
-      <c r="H11" s="10" t="e">
-        <f>G11/C11</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I11" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="24"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="9"/>
+        <v>0.888122848189556</v>
+      </c>
+      <c r="J11" s="32">
+        <v>329.03550000000001</v>
+      </c>
+      <c r="K11" s="33">
+        <f t="shared" si="4"/>
+        <v>3.4948365753847233</v>
+      </c>
+      <c r="L11" s="34">
+        <f t="shared" si="5"/>
+        <v>0.87370914384618081</v>
+      </c>
+      <c r="M11" s="32">
+        <v>222.06209999999999</v>
+      </c>
+      <c r="N11" s="33">
+        <f t="shared" si="6"/>
+        <v>5.1783951426200154</v>
+      </c>
+      <c r="O11" s="34">
+        <f t="shared" si="7"/>
+        <v>0.64729939282750193</v>
+      </c>
     </row>
     <row r="12" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A13" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="34"/>
+      <c r="A13" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="57"/>
     </row>
     <row r="14" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="35"/>
-      <c r="B14" s="14">
+      <c r="A14" s="59"/>
+      <c r="B14" s="7">
         <v>1</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="7">
         <v>2</v>
       </c>
-      <c r="D14" s="14">
-        <v>3</v>
-      </c>
-      <c r="E14" s="15">
+      <c r="D14" s="7">
         <v>4</v>
       </c>
+      <c r="E14" s="8">
+        <v>8</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A15" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="27"/>
+      <c r="A15" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A16" s="28"/>
+      <c r="A16" s="54"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="7"/>
+      <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="29"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="9"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="27"/>
+      <c r="A18" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="28"/>
+      <c r="A19" s="54"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="7"/>
+      <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="29"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="9"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="27"/>
+      <c r="A21" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="28"/>
+      <c r="A22" s="54"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="7"/>
+      <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="29"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="9"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -1379,15 +5010,14 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E1FEBD-1309-4BB5-8D1C-6F6610F83FF0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FBEBF95-40AC-483F-BEE9-FFD2EDB37DB4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
@@ -1396,13 +5026,690 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88B73683-DAF6-4AD7-9D1E-FFBEEAEED86F}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E1FEBD-1309-4BB5-8D1C-6F6610F83FF0}">
+  <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.109375" style="39" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" style="39" customWidth="1"/>
+    <col min="3" max="3" width="20" style="39" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="39" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" style="39" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="39" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" style="39" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" style="39" customWidth="1"/>
+    <col min="9" max="9" width="5" style="39" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="39"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="56.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="R1" s="42"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A2" s="43">
+        <v>1000</v>
+      </c>
+      <c r="B2" s="12">
+        <v>3.1276999999999999</v>
+      </c>
+      <c r="C2" s="12">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="R2" s="44"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A3" s="43">
+        <v>1500</v>
+      </c>
+      <c r="B3" s="12">
+        <v>3.6901000000000002</v>
+      </c>
+      <c r="C3" s="12">
+        <v>5.8609999999999998</v>
+      </c>
+      <c r="R3" s="44"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A4" s="43">
+        <v>2000</v>
+      </c>
+      <c r="B4" s="12">
+        <v>4.0698999999999996</v>
+      </c>
+      <c r="C4" s="12">
+        <v>8.1202000000000005</v>
+      </c>
+      <c r="R4" s="44"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A5" s="43">
+        <v>2500</v>
+      </c>
+      <c r="B5" s="12">
+        <v>4.5298999999999996</v>
+      </c>
+      <c r="C5" s="12">
+        <v>15.539199999999999</v>
+      </c>
+      <c r="R5" s="44"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A6" s="43">
+        <v>3000</v>
+      </c>
+      <c r="B6" s="12">
+        <v>6.0155000000000003</v>
+      </c>
+      <c r="C6" s="12">
+        <v>15.788600000000001</v>
+      </c>
+      <c r="R6" s="44"/>
+    </row>
+    <row r="7" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="45"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="47"/>
+    </row>
+    <row r="8" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:18" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="48"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="42"/>
+    </row>
+    <row r="10" spans="1:18" ht="22.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="69"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="R10" s="44"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A11" s="54"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="67"/>
+      <c r="E11" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="69"/>
+      <c r="G11" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="67"/>
+      <c r="R11" s="44"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A12" s="68"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" s="44"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A13" s="43">
+        <v>1000</v>
+      </c>
+      <c r="B13" s="12">
+        <v>8.1475000000000009</v>
+      </c>
+      <c r="C13" s="12">
+        <v>4.0515999999999996</v>
+      </c>
+      <c r="D13" s="12">
+        <f>B13/C13</f>
+        <v>2.0109339520189558</v>
+      </c>
+      <c r="E13" s="12">
+        <v>3.6314000000000002</v>
+      </c>
+      <c r="F13" s="12">
+        <f>B13/E13</f>
+        <v>2.2436250481907805</v>
+      </c>
+      <c r="G13" s="12">
+        <v>2.8643999999999998</v>
+      </c>
+      <c r="H13" s="12">
+        <f>B13/G13</f>
+        <v>2.8444002234324821</v>
+      </c>
+      <c r="R13" s="44"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A14" s="43">
+        <v>1500</v>
+      </c>
+      <c r="B14" s="12">
+        <v>12.4268</v>
+      </c>
+      <c r="C14" s="12">
+        <v>7.6851000000000003</v>
+      </c>
+      <c r="D14" s="12">
+        <f>B14/C14</f>
+        <v>1.6169991281831075</v>
+      </c>
+      <c r="E14" s="12">
+        <v>6.2862</v>
+      </c>
+      <c r="F14" s="12">
+        <f>B14/E14</f>
+        <v>1.9768381534154178</v>
+      </c>
+      <c r="G14" s="12">
+        <v>5.2861000000000002</v>
+      </c>
+      <c r="H14" s="12">
+        <f>B14/G14</f>
+        <v>2.3508446680917876</v>
+      </c>
+      <c r="R14" s="44"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A15" s="43">
+        <v>2000</v>
+      </c>
+      <c r="B15" s="12">
+        <v>22.713799999999999</v>
+      </c>
+      <c r="C15" s="12">
+        <v>11.055999999999999</v>
+      </c>
+      <c r="D15" s="12">
+        <f>B15/C15</f>
+        <v>2.0544319826338642</v>
+      </c>
+      <c r="E15" s="12">
+        <v>8.2612000000000005</v>
+      </c>
+      <c r="F15" s="12">
+        <f>B15/E15</f>
+        <v>2.7494552849464964</v>
+      </c>
+      <c r="G15" s="12">
+        <v>8.1913999999999998</v>
+      </c>
+      <c r="H15" s="12">
+        <f>B15/G15</f>
+        <v>2.7728837561344823</v>
+      </c>
+      <c r="R15" s="44"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A16" s="43">
+        <v>2500</v>
+      </c>
+      <c r="B16" s="12">
+        <v>34.999400000000001</v>
+      </c>
+      <c r="C16" s="12">
+        <v>18.3003</v>
+      </c>
+      <c r="D16" s="12">
+        <f>B16/C16</f>
+        <v>1.9125041665983618</v>
+      </c>
+      <c r="E16" s="12">
+        <v>16.8569</v>
+      </c>
+      <c r="F16" s="12">
+        <f>B16/E16</f>
+        <v>2.076265505519995</v>
+      </c>
+      <c r="G16" s="12">
+        <v>12.8725</v>
+      </c>
+      <c r="H16" s="12">
+        <f>B16/G16</f>
+        <v>2.7189279471742087</v>
+      </c>
+      <c r="R16" s="44"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A17" s="43">
+        <v>3000</v>
+      </c>
+      <c r="B17" s="12">
+        <v>49.165199999999999</v>
+      </c>
+      <c r="C17" s="12">
+        <v>23.227599999999999</v>
+      </c>
+      <c r="D17" s="12">
+        <f>B17/C17</f>
+        <v>2.1166715459195098</v>
+      </c>
+      <c r="E17" s="12">
+        <v>17.46</v>
+      </c>
+      <c r="F17" s="12">
+        <f>B17/E17</f>
+        <v>2.8158762886597937</v>
+      </c>
+      <c r="G17" s="12">
+        <v>15.1462</v>
+      </c>
+      <c r="H17" s="12">
+        <f>B17/G17</f>
+        <v>3.2460419115025547</v>
+      </c>
+      <c r="R17" s="44"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A18" s="49"/>
+      <c r="R18" s="44"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A19" s="49"/>
+      <c r="R19" s="44"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A20" s="49"/>
+      <c r="R20" s="44"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A21" s="49"/>
+      <c r="R21" s="44"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A22" s="49"/>
+      <c r="R22" s="44"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A23" s="49"/>
+      <c r="R23" s="44"/>
+    </row>
+    <row r="24" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="45"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="46"/>
+      <c r="P24" s="46"/>
+      <c r="Q24" s="46"/>
+      <c r="R24" s="47"/>
+    </row>
+    <row r="25" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A26" s="48"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="41"/>
+      <c r="P26" s="41"/>
+      <c r="Q26" s="41"/>
+      <c r="R26" s="42"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A27" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="69"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="R27" s="44"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A28" s="54"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="67"/>
+      <c r="E28" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="69"/>
+      <c r="G28" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28" s="67"/>
+      <c r="R28" s="44"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A29" s="68"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="44"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A30" s="43">
+        <v>1000</v>
+      </c>
+      <c r="B30" s="12">
+        <v>5.9236000000000004</v>
+      </c>
+      <c r="C30" s="12">
+        <v>3.3349000000000002</v>
+      </c>
+      <c r="D30" s="12">
+        <f>B30/C30</f>
+        <v>1.776245164772557</v>
+      </c>
+      <c r="E30" s="12">
+        <v>2.8176000000000001</v>
+      </c>
+      <c r="F30" s="12">
+        <f>B30/E30</f>
+        <v>2.1023566155593412</v>
+      </c>
+      <c r="G30" s="12">
+        <v>2.9624000000000001</v>
+      </c>
+      <c r="H30" s="12">
+        <f>B30/G30</f>
+        <v>1.9995949230353767</v>
+      </c>
+      <c r="R30" s="44"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A31" s="43">
+        <v>1500</v>
+      </c>
+      <c r="B31" s="12">
+        <v>16.634899999999998</v>
+      </c>
+      <c r="C31" s="12">
+        <v>7.5551000000000004</v>
+      </c>
+      <c r="D31" s="12">
+        <f>B31/C31</f>
+        <v>2.2018106974096963</v>
+      </c>
+      <c r="E31" s="12">
+        <v>5.8136000000000001</v>
+      </c>
+      <c r="F31" s="12">
+        <f>B31/E31</f>
+        <v>2.8613767717077194</v>
+      </c>
+      <c r="G31" s="12">
+        <v>6.8628999999999998</v>
+      </c>
+      <c r="H31" s="12">
+        <f>B31/G31</f>
+        <v>2.4238878608168557</v>
+      </c>
+      <c r="R31" s="44"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A32" s="43">
+        <v>2000</v>
+      </c>
+      <c r="B32" s="12">
+        <v>21.6861</v>
+      </c>
+      <c r="C32" s="12">
+        <v>10.234</v>
+      </c>
+      <c r="D32" s="12">
+        <f>B32/C32</f>
+        <v>2.1190248192300176</v>
+      </c>
+      <c r="E32" s="12">
+        <v>7.5881999999999996</v>
+      </c>
+      <c r="F32" s="12">
+        <f>B32/E32</f>
+        <v>2.8578714319601488</v>
+      </c>
+      <c r="G32" s="12">
+        <v>6.8428000000000004</v>
+      </c>
+      <c r="H32" s="12">
+        <f>B32/G32</f>
+        <v>3.1691851288946045</v>
+      </c>
+      <c r="R32" s="44"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A33" s="43">
+        <v>2500</v>
+      </c>
+      <c r="B33" s="12">
+        <v>29.4192</v>
+      </c>
+      <c r="C33" s="12">
+        <v>16.685600000000001</v>
+      </c>
+      <c r="D33" s="12">
+        <f>B33/C33</f>
+        <v>1.7631490626648127</v>
+      </c>
+      <c r="E33" s="12">
+        <v>11.4566</v>
+      </c>
+      <c r="F33" s="12">
+        <f>B33/E33</f>
+        <v>2.5678822687359251</v>
+      </c>
+      <c r="G33" s="12">
+        <v>8.1798000000000002</v>
+      </c>
+      <c r="H33" s="12">
+        <f>B33/G33</f>
+        <v>3.5965671532311303</v>
+      </c>
+      <c r="R33" s="44"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A34" s="43">
+        <v>3000</v>
+      </c>
+      <c r="B34" s="12">
+        <v>45.041800000000002</v>
+      </c>
+      <c r="C34" s="12">
+        <v>23.4163</v>
+      </c>
+      <c r="D34" s="12">
+        <f>B34/C34</f>
+        <v>1.9235233576611166</v>
+      </c>
+      <c r="E34" s="12">
+        <v>19.4819</v>
+      </c>
+      <c r="F34" s="12">
+        <f>B34/E34</f>
+        <v>2.3119818908833327</v>
+      </c>
+      <c r="G34" s="12">
+        <v>14.839</v>
+      </c>
+      <c r="H34" s="12">
+        <f>B34/G34</f>
+        <v>3.0353662645730846</v>
+      </c>
+      <c r="R34" s="44"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A35" s="49"/>
+      <c r="R35" s="44"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A36" s="49"/>
+      <c r="R36" s="44"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A37" s="49"/>
+      <c r="R37" s="44"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A38" s="49"/>
+      <c r="R38" s="44"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A39" s="49"/>
+      <c r="R39" s="44"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A40" s="49"/>
+      <c r="R40" s="44"/>
+    </row>
+    <row r="41" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="45"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="46"/>
+      <c r="J41" s="46"/>
+      <c r="K41" s="46"/>
+      <c r="L41" s="46"/>
+      <c r="M41" s="46"/>
+      <c r="N41" s="46"/>
+      <c r="O41" s="46"/>
+      <c r="P41" s="46"/>
+      <c r="Q41" s="46"/>
+      <c r="R41" s="47"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="B10:B12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>